--- a/Утиль.xlsx
+++ b/Утиль.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4950" yWindow="3885" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -393,8 +393,8 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -434,7 +434,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Неустранимые загрязнения</t>
+          <t>Залит, GPRS</t>
         </is>
       </c>
     </row>
@@ -451,19 +451,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Следы жизнедеятельности</t>
+          <t>Неустранимые загрязнения, Alert</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>PAX90</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
           <t>456ne45y</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Залит, CTLS</t>
         </is>
       </c>
     </row>
@@ -480,7 +485,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Следы жизнедеятельности</t>
+          <t>Неустранимые загрязнения, CTLS</t>
         </is>
       </c>
     </row>
@@ -497,7 +502,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Залит</t>
+          <t>Следы жизнедеятельности, Tamper</t>
         </is>
       </c>
     </row>
@@ -514,7 +519,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Неустранимые загрязнения</t>
+          <t>Залит, GPRS</t>
         </is>
       </c>
     </row>
@@ -531,7 +536,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Неустранимые загрязнения</t>
+          <t>Залит, CTLS</t>
         </is>
       </c>
     </row>
@@ -548,7 +553,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Неустранимые загрязнения</t>
+          <t>Механические повреждения, Дефект клавиатуры</t>
         </is>
       </c>
     </row>
@@ -565,7 +570,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Механические повреждения</t>
+          <t>Залит, Принтер</t>
         </is>
       </c>
     </row>
@@ -582,7 +587,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tamper</t>
+          <t>Залит, Tamper</t>
         </is>
       </c>
     </row>
@@ -599,7 +604,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Залит</t>
+          <t>Следы жизнедеятельности, Дефект экрана</t>
         </is>
       </c>
     </row>
@@ -616,7 +621,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Неустранимые загрязнения</t>
+          <t>Неустранимые загрязнения, Дефект экрана</t>
         </is>
       </c>
     </row>
@@ -633,7 +638,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tamper</t>
+          <t>Неустранимые загрязнения, CTLS</t>
         </is>
       </c>
     </row>
@@ -650,19 +655,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Alert</t>
+          <t>Следы жизнедеятельности, Порт питания</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>PAX</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
           <t>a4ha4hah4wa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Неустранимые загрязнения, GPRS</t>
         </is>
       </c>
     </row>
@@ -679,19 +689,24 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Механические повреждения</t>
+          <t>Неустранимые загрязнения, Дефект экрана</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>PAX</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
           <t>e5ne5ne5</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Залит, CTLS</t>
         </is>
       </c>
     </row>
@@ -708,7 +723,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tamper</t>
+          <t>Залит, GPRS</t>
         </is>
       </c>
     </row>
@@ -725,7 +740,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Следы жизнедеятельности</t>
+          <t>Неустранимые загрязнения, Дефект клавиатуры</t>
         </is>
       </c>
     </row>
@@ -742,7 +757,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Залит</t>
+          <t>Залит, Tamper</t>
         </is>
       </c>
     </row>
@@ -759,7 +774,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Механические повреждения</t>
+          <t>Механические повреждения, Tamper</t>
         </is>
       </c>
     </row>
@@ -776,7 +791,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Неустранимые загрязнения</t>
+          <t>Неустранимые загрязнения, Принтер</t>
         </is>
       </c>
     </row>
@@ -793,19 +808,24 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Залит</t>
+          <t>Неустранимые загрязнения, Дефект клавиатуры</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>PAX</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
           <t>w54r6htbtn</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Следы жизнедеятельности, CTLS</t>
         </is>
       </c>
     </row>
@@ -822,7 +842,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Неустранимые загрязнения</t>
+          <t>Механические повреждения, Tamper</t>
         </is>
       </c>
     </row>
@@ -839,31 +859,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Залит</t>
+          <t>Механические повреждения, Дефект экрана</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>PAX</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
           <t>sdfbdfnty</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Следы жизнедеятельности, Принтер</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>PAX</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
           <t>erb</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Следы жизнедеятельности, CTLS</t>
         </is>
       </c>
     </row>

--- a/Утиль.xlsx
+++ b/Утиль.xlsx
@@ -391,10 +391,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C29"/>
+      <selection activeCell="C34" sqref="C2:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -434,7 +434,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Залит, GPRS</t>
+          <t>Механические повреждения, Принтер</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Залит, CTLS</t>
+          <t>Залит, Принтер</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Неустранимые загрязнения, CTLS</t>
+          <t>Следы жизнедеятельности, GPRS</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Следы жизнедеятельности, Tamper</t>
+          <t>Неустранимые загрязнения, Принтер</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Залит, GPRS</t>
+          <t>Следы жизнедеятельности, GPRS</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Залит, CTLS</t>
+          <t>Залит, Tamper</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Механические повреждения, Дефект клавиатуры</t>
+          <t>Залит, Дефект клавиатуры</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Залит, Принтер</t>
+          <t>Неустранимые загрязнения, Дефект клавиатуры</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Залит, Tamper</t>
+          <t>Механические повреждения, Принтер</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Следы жизнедеятельности, Дефект экрана</t>
+          <t>Механические повреждения, CTLS</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Неустранимые загрязнения, CTLS</t>
+          <t>Залит, Принтер</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Следы жизнедеятельности, Порт питания</t>
+          <t>Неустранимые загрязнения, Дефект клавиатуры</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Неустранимые загрязнения, GPRS</t>
+          <t>Залит, Принтер</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Неустранимые загрязнения, Дефект экрана</t>
+          <t>Залит, Порт питания</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Залит, CTLS</t>
+          <t>Механические повреждения, Tamper</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Залит, GPRS</t>
+          <t>Механические повреждения, GPRS</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Неустранимые загрязнения, Дефект клавиатуры</t>
+          <t>Механические повреждения, Дефект экрана</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Залит, Tamper</t>
+          <t>Неустранимые загрязнения, Принтер</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Неустранимые загрязнения, Принтер</t>
+          <t>Залит, CTLS</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Неустранимые загрязнения, Дефект клавиатуры</t>
+          <t>Залит, Alert</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Следы жизнедеятельности, CTLS</t>
+          <t>Механические повреждения, CTLS</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Механические повреждения, Tamper</t>
+          <t>Залит, CTLS</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Механические повреждения, Дефект экрана</t>
+          <t>Неустранимые загрязнения, Дефект клавиатуры</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Следы жизнедеятельности, Принтер</t>
+          <t>Залит, GPRS</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,24 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Следы жизнедеятельности, CTLS</t>
+          <t>Механические повреждения, CTLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Castles</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>12345345687u</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Неустранимые загрязнения</t>
         </is>
       </c>
     </row>
